--- a/results/SI_tables/TableS3.xlsx
+++ b/results/SI_tables/TableS3.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr date1904="false"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
@@ -12,7 +12,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+  <si>
+    <t xml:space="preserve"/>
+  </si>
   <si>
     <t xml:space="preserve">Tissue A</t>
   </si>
@@ -26,10 +29,13 @@
     <t xml:space="preserve">rho</t>
   </si>
   <si>
-    <t xml:space="preserve">p.val</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FDR</t>
+    <t xml:space="preserve">permutation p-value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eFPP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
   </si>
   <si>
     <t xml:space="preserve">Cortex</t>
@@ -41,19 +47,52 @@
     <t xml:space="preserve">Development</t>
   </si>
   <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
     <t xml:space="preserve">Liver</t>
   </si>
   <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
     <t xml:space="preserve">Muscle</t>
   </si>
   <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ageing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
@@ -372,10 +411,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -398,244 +437,283 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.379</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>0.294</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.17</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.021</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>0.405</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>0.272</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.01</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>0.277</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.279</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.01</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>0.579</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>0.393</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.016</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>0.383</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>0.361</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.034</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>0.414</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="n">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.227</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.055</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>0.343</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" t="n">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.274</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.003</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>0.189</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" t="n">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.248</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.003</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>0.156</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" t="n">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.327</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.019</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>0.363</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" t="n">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" t="n">
         <v>0.234</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.175</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>0.653</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" t="n">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" t="n">
         <v>0.253</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.029</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>0.354</v>
       </c>
     </row>
